--- a/biology/Médecine/Syndrome_neurologique_paranéoplasique/Syndrome_neurologique_paranéoplasique.xlsx
+++ b/biology/Médecine/Syndrome_neurologique_paranéoplasique/Syndrome_neurologique_paranéoplasique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_neurologique_paran%C3%A9oplasique</t>
+          <t>Syndrome_neurologique_paranéoplasique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les syndromes neurologiques paranéoplasiques sont rares et surviennent chez environ 1 % des patients souffrant de cancer. Les SNP précèdent la survenue du cancer dans près de 80 % des cas. Si toutes les parties du système nerveux peuvent être touchées, certains syndromes considérés comme caractéristiques, doivent faire systématiquement rechercher un cancer[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les syndromes neurologiques paranéoplasiques sont rares et surviennent chez environ 1 % des patients souffrant de cancer. Les SNP précèdent la survenue du cancer dans près de 80 % des cas. Si toutes les parties du système nerveux peuvent être touchées, certains syndromes considérés comme caractéristiques, doivent faire systématiquement rechercher un cancer.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_neurologique_paran%C3%A9oplasique</t>
+          <t>Syndrome_neurologique_paranéoplasique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le diagnostic de syndrome neurologique paranéoplasique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par définition, les syndromes neurologiques paranéoplasiques (SNP) résultent d’une atteinte du système nerveux, chez des patients développant un cancer, qui ne dépend ni d’une infiltration néoplasique, ni de la toxicité des traitements, ni de l’immunodépression accompagnant certaines tumeurs. Restée longtemps mystérieuse, la physiopathologie des SNP implique vraisemblablement un processus auto-immun initialement dirigé contre la tumeur et qui reconnaît le système nerveux par un mécanisme d’immunité croisée. L’identification ces 20 dernières années d’auto-anticorps, dits onconeuronaux, reconnaissant des antigènes communs aux tumeurs et au système nerveux est actuellement l’argument le plus fort en faveur de cette hypothèse.
 Les SNP sont divers. Certains affectent le système nerveux central, d’autres le système nerveux périphérique. Hormis ce dernier groupe où le processus lésionnel est plus complexe, l’atteinte neurologique résulte d’une destruction neuronale expliquant le caractère habituellement irréversible des SNP ainsi que leur gravité. Cette atteinte dévastatrice est, en général, subaiguë, s’installant en quelques semaines, parfois en quelques jours.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_neurologique_paran%C3%A9oplasique</t>
+          <t>Syndrome_neurologique_paranéoplasique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,17 +569,103 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neuropathie sensitive subaiguë de Denny-Brown
-Particularités cliniques
-Cette neuropathie se traduit par l’installation subaiguë de douleurs et de paresthésies affectant le plus souvent les membres supérieurs de façon asymétrique. Par la suite, les troubles sensitifs progressent rapidement aux quatre membres avant de se stabiliser (6-9 mois). L’aggravation des troubles sensitifs est responsable d’une ataxie dite sensitive et de mouvements pseudoathétosiques des mains. L'examen neurologique montre une aréflexie et des troubles sensitifs touchant tous modes. Dans 30 % des cas, les patients souffrent d’un engourdissement uni ou bilatéral du visage liée à une atteinte des ganglions des nerfs trijumeaux. La surdité neurosensorielle et les troubles sensitifs localisés au niveau du tronc sont plus rares. 
+          <t>Neuropathie sensitive subaiguë de Denny-Brown</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Particularités cliniques</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette neuropathie se traduit par l’installation subaiguë de douleurs et de paresthésies affectant le plus souvent les membres supérieurs de façon asymétrique. Par la suite, les troubles sensitifs progressent rapidement aux quatre membres avant de se stabiliser (6-9 mois). L’aggravation des troubles sensitifs est responsable d’une ataxie dite sensitive et de mouvements pseudoathétosiques des mains. L'examen neurologique montre une aréflexie et des troubles sensitifs touchant tous modes. Dans 30 % des cas, les patients souffrent d’un engourdissement uni ou bilatéral du visage liée à une atteinte des ganglions des nerfs trijumeaux. La surdité neurosensorielle et les troubles sensitifs localisés au niveau du tronc sont plus rares. 
 Le handicap est souvent sévère liée à l’importance de l’ataxie. Plus rarement, chez 10 % des patients, cette neuropathie présente une évolution modérée et très lente. Ces patients peuvent rester valides et avoir une vie normale pendant des années sans aucun traitement anti-tumoral ou immunosuppressif. 
 La neuronopathie sensitive paranéoplasique n'est pas toujours un syndrome isolé et l'examen neurologique peut montrer l’atteinte des nerfs moteurs, du système nerveux périphérique autonome, ou du système nerveux central (encéphalomyélite). La dysautonomie peut se manifester par une pseudo-obstruction digestive, des troubles du rythme cardiaque et/ou tensionnels. 
 Les études électrophysiologiques montrent une atteinte marquée, mais non exclusive, des fibres sensitives, avec des potentiels sensitifs diminués ou absents. Le LCR peut montrer une pléiocytose lymphocytaire modérée. Lorsqu’une biopsie nerveuse (nerf sural externe) est pratiquée, celle-ci montre une perte des fibres nerveuses avec de possibles infiltrats inflammatoires périvasculaires sans nécrose. 
 La tumeur associée la plus commune est le carcinome du poumon à petites cellules.
-Anticorps associés
-La plupart des patients présentent des anticorps anti-Hu. On retrouve moins fréquemment des anticorps anti-CV2 (CRMP5) ou anti-amphiphysine.
-Traitement
-Comme pour d'autres SNP associés à des atteintes neuronales, la neuropathie sensitive s'améliore rarement avec le traitement. La meilleure chance de stabiliser le syndrome est d'induire une réponse complète contre la tumeur. L'immunothérapie est rarement efficace mais un essai par immunoglobulines intraveineuses, stéroïdes ou plasmaphérèse est indiqué car quelques patients ont été améliorés ainsi par ces traitements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_neurologique_paranéoplasique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_neurologique_paran%C3%A9oplasique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les syndromes cliniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Neuropathie sensitive subaiguë de Denny-Brown</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Anticorps associés</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des patients présentent des anticorps anti-Hu. On retrouve moins fréquemment des anticorps anti-CV2 (CRMP5) ou anti-amphiphysine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_neurologique_paranéoplasique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_neurologique_paran%C3%A9oplasique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les syndromes cliniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Neuropathie sensitive subaiguë de Denny-Brown</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour d'autres SNP associés à des atteintes neuronales, la neuropathie sensitive s'améliore rarement avec le traitement. La meilleure chance de stabiliser le syndrome est d'induire une réponse complète contre la tumeur. L'immunothérapie est rarement efficace mais un essai par immunoglobulines intraveineuses, stéroïdes ou plasmaphérèse est indiqué car quelques patients ont été améliorés ainsi par ces traitements.
 </t>
         </is>
       </c>
